--- a/Documentos/Planilha de risco.xlsx
+++ b/Documentos/Planilha de risco.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Área de Trabalho\Pump Drink\Projeto Sprint 02\Pump_Drink\Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722C6440-22E4-42E3-929A-5547D9F75E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -117,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,22 +221,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -269,21 +272,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="8"/>
-    <tableColumn id="2" name="Descrição do risco" dataDxfId="7"/>
-    <tableColumn id="3" name="Probabilidade" dataDxfId="6"/>
-    <tableColumn id="4" name="Impacto" dataDxfId="5"/>
-    <tableColumn id="5" name="Fator de risco" dataDxfId="4"/>
-    <tableColumn id="6" name="Ação" dataDxfId="3"/>
-    <tableColumn id="7" name="Como?" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição do risco" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Probabilidade" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Impacto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fator de risco" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ação" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Como?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -292,7 +298,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -330,9 +336,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,9 +371,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,9 +423,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,10 +615,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -586,9 +626,10 @@
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="67.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -803,12 +844,12 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="J11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J12" s="2" t="s">
@@ -817,10 +858,10 @@
       <c r="K12" s="3">
         <v>3</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>6</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>9</v>
       </c>
     </row>
@@ -834,7 +875,7 @@
       <c r="L13" s="3">
         <v>4</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <v>6</v>
       </c>
     </row>
@@ -842,10 +883,10 @@
       <c r="J14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>1</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>2</v>
       </c>
       <c r="M14" s="3">
@@ -853,7 +894,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J15" s="7"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="2" t="s">
         <v>29</v>
       </c>
@@ -865,12 +906,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="J16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -885,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -897,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Documentos/Planilha de risco.xlsx
+++ b/Documentos/Planilha de risco.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26412"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_058EFEFF2A53E83F99C92F89FD45CC221CD7A954" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -39,67 +53,67 @@
     <t>Como?</t>
   </si>
   <si>
+    <t>Membro sair do grupo</t>
+  </si>
+  <si>
+    <t>Mitigar</t>
+  </si>
+  <si>
+    <t>Criar um ambiente agradável e comunicativo</t>
+  </si>
+  <si>
+    <t>Falta de comunicação entre integrantes</t>
+  </si>
+  <si>
+    <t>Evitar</t>
+  </si>
+  <si>
+    <t>Criar um ambiente propenso a feedbacks/notificação sobre os processos</t>
+  </si>
+  <si>
+    <t>Falhas no equipamento</t>
+  </si>
+  <si>
+    <t>Testes periódicos e preventivos</t>
+  </si>
+  <si>
+    <t>Atrasos das entregas das sprints</t>
+  </si>
+  <si>
+    <t>Enfatizar em grupo a necessidade de uso da ferramenta de gestão do projeto</t>
+  </si>
+  <si>
+    <t>Falta de organização entre os integrantes</t>
+  </si>
+  <si>
+    <t>Discussão em reuniões e atualização das ferramentas de gestão do projeto</t>
+  </si>
+  <si>
+    <t>Nivelamento técnico do projeto</t>
+  </si>
+  <si>
+    <t>Membros mais avançados tirando dúvidas dos menos avançados</t>
+  </si>
+  <si>
+    <t>Falta de comprometimento dos membros</t>
+  </si>
+  <si>
+    <t>MItigar</t>
+  </si>
+  <si>
+    <t>Fornecer feedbacks construtivos e provendo uma visão final do projeto</t>
+  </si>
+  <si>
+    <t>Perda dos arquivos do projeto</t>
+  </si>
+  <si>
+    <t>Atualização constante do GitHub</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
     <t>Médio</t>
-  </si>
-  <si>
-    <t>Atrasos das entregas das sprints</t>
-  </si>
-  <si>
-    <t>Falta de comunicação entre integrantes</t>
-  </si>
-  <si>
-    <t>Falta de organização entre os integrantes</t>
-  </si>
-  <si>
-    <t>Falhas no equipamento</t>
-  </si>
-  <si>
-    <t>Membro sair do grupo</t>
-  </si>
-  <si>
-    <t>Nivelamento técnico do projeto</t>
-  </si>
-  <si>
-    <t>Falta de comprometimento dos membros</t>
-  </si>
-  <si>
-    <t>Perda dos arquivos do projeto</t>
-  </si>
-  <si>
-    <t>Evitar</t>
-  </si>
-  <si>
-    <t>Mitigar</t>
-  </si>
-  <si>
-    <t>Criar um ambiente agradável e comunicativo</t>
-  </si>
-  <si>
-    <t>Criar um ambiente propenso a feedbacks/notificação sobre os processos</t>
-  </si>
-  <si>
-    <t>Testes periódicos e preventivos</t>
-  </si>
-  <si>
-    <t>Discussão em reuniões e atualização das ferramentas de gestão do projeto</t>
-  </si>
-  <si>
-    <t>Membros mais avançados tirando dúvidas dos menos avançados</t>
-  </si>
-  <si>
-    <t>MItigar</t>
-  </si>
-  <si>
-    <t>Fornecer feedbacks construtivos e provendo uma visão final do projeto</t>
-  </si>
-  <si>
-    <t>Atualização constante do GitHub</t>
-  </si>
-  <si>
-    <t>Enfatizar em grupo a necessidade de uso da ferramenta de gestão do projeto</t>
-  </si>
-  <si>
-    <t>Alto</t>
   </si>
   <si>
     <t>Baixo</t>
@@ -117,8 +131,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,22 +229,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -269,30 +280,33 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="8"/>
-    <tableColumn id="2" name="Descrição do risco" dataDxfId="7"/>
-    <tableColumn id="3" name="Probabilidade" dataDxfId="6"/>
-    <tableColumn id="4" name="Impacto" dataDxfId="5"/>
-    <tableColumn id="5" name="Fator de risco" dataDxfId="4"/>
-    <tableColumn id="6" name="Ação" dataDxfId="3"/>
-    <tableColumn id="7" name="Como?" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição do risco" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Probabilidade" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Impacto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fator de risco" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ação" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Como?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -330,9 +344,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,9 +379,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,9 +431,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,27 +623,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,12 +666,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -635,18 +683,18 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -658,18 +706,18 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -681,18 +729,18 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -704,18 +752,18 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -727,18 +775,18 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -750,18 +798,18 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -773,18 +821,18 @@
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -796,37 +844,37 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
+      <c r="J11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+      <c r="L12" s="6">
+        <v>6</v>
+      </c>
+      <c r="M12" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19.149999999999999" customHeight="1">
+      <c r="J13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3</v>
-      </c>
-      <c r="L12" s="8">
-        <v>6</v>
-      </c>
-      <c r="M12" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J13" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="K13" s="4">
         <v>2</v>
@@ -834,26 +882,26 @@
       <c r="L13" s="3">
         <v>4</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="J14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>1</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>2</v>
       </c>
       <c r="M14" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J15" s="7"/>
+    <row r="15" spans="1:13">
+      <c r="J15" s="5"/>
       <c r="K15" s="2" t="s">
         <v>29</v>
       </c>
@@ -864,13 +912,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+    <row r="16" spans="1:13">
+      <c r="J16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -885,24 +933,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
